--- a/tasks/finalpool/mrbeast-analysis/groundtruth_workspace/result.xlsx
+++ b/tasks/finalpool/mrbeast-analysis/groundtruth_workspace/result.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,29 +511,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pv0iVoSZzN8</t>
+          <t>krsBRQbOPQ4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>In 10 Minutes This Room Will Explode!</t>
+          <t>$1 vs $250,000,000 Private Island!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-04-27T16:00:00Z</t>
+          <t>2024-01-27T17:00:00Z</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>600</v>
+        <v>1019</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0:10:00</t>
+          <t>0:16:59</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45409.66666666666</v>
+        <v>45318.70833333334</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -544,95 +544,95 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>snUyLbGx6U4</t>
+          <t>KOEfDvr4DcQ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Buy Feastables, Win Unlimited Money</t>
+          <t>Face Your Biggest Fear To Win $800,000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-04-30T16:00:00Z</t>
+          <t>2024-02-10T17:00:00Z</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>1323</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0:00:51</t>
+          <t>0:22:03</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45412.66666666666</v>
+        <v>45332.70833333334</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8krJy31Diow</t>
+          <t>tWYsfOSY9vY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Holding Bigger And Bigger Dogs</t>
+          <t>I Survived 7 Days In An Abandoned City</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-09-16T18:00:00Z</t>
+          <t>2024-03-02T17:00:00Z</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>1044</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0:00:17</t>
+          <t>0:17:24</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45551.75</v>
+        <v>45353.70833333334</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bn0Kh9c4Zv4</t>
+          <t>mKdjycj-7eE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7 Days Exploring An Underground City</t>
+          <t>Stop This Train, Win a Lamborghini</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-10-12T16:00:00Z</t>
+          <t>2024-03-16T16:00:00Z</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1235</v>
+        <v>1141</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0:20:35</t>
+          <t>0:19:01</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45577.66666666666</v>
+        <v>45367.66666666666</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -643,29 +643,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Xj0Jtjg3lHQ</t>
+          <t>erLbbextvlY</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$1 vs $500,000 Experiences!</t>
+          <t>7 Days Stranded On An Island</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-11-02T16:00:00Z</t>
+          <t>2024-03-30T16:00:01Z</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1060</v>
+        <v>1346</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0:17:40</t>
+          <t>0:22:26</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45598.66666666666</v>
+        <v>45381.66667824074</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -676,62 +676,62 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gs8qfL9PNac</t>
+          <t>l-nMKJ5J3Uc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2,000 People Fight For $5,000,000</t>
+          <t>Ages 1 - 100 Decide Who Wins $250,000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-12-19T17:00:00Z</t>
+          <t>2024-04-20T15:59:59Z</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1485</v>
+        <v>2402</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0:24:45</t>
+          <t>0:40:02</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45645.70833333334</v>
+        <v>45402.66665509259</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SM66GDRyIVY</t>
+          <t>Pv0iVoSZzN8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>I Helped 2,000 People Walk Again</t>
+          <t>In 10 Minutes This Room Will Explode!</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-01-11T17:00:02Z</t>
+          <t>2024-04-27T16:00:00Z</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>931</v>
+        <v>600</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0:15:31</t>
+          <t>0:10:00</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45668.70835648148</v>
+        <v>45409.66666666666</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -742,29 +742,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NDsO1LT_0lw</t>
+          <t>F6PqxbvOCUI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>I Spent 100 Hours Inside The Pyramids!</t>
+          <t>Protect The Yacht, Keep It!</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-02-08T17:00:00Z</t>
+          <t>2024-05-11T16:00:00Z</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1303</v>
+        <v>908</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0:21:43</t>
+          <t>0:15:08</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45696.70833333334</v>
+        <v>45423.66666666666</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -775,62 +775,62 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nAiKLoCP-kU</t>
+          <t>U_LlX4t0A9I</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Reach the Money, Win $10,000</t>
+          <t>$10,000 Every Day You Survive In The Wilderness</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-02-14T18:15:00Z</t>
+          <t>2024-06-01T16:00:00Z</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>1570</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0:00:25</t>
+          <t>0:26:10</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45702.76041666666</v>
+        <v>45444.66666666666</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>zajUgQLviwk</t>
+          <t>PWirijQkH4M</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Last to Leave Their Circle Wins $500,000</t>
+          <t>World’s Deadliest Obstacle Course!</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-01T17:00:01Z</t>
+          <t>2024-06-15T16:00:01Z</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2318</v>
+        <v>1705</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0:38:38</t>
+          <t>0:28:25</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45717.70834490741</v>
+        <v>45458.66667824074</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -841,29 +841,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>aKq8bkY5eTU</t>
+          <t>KkCXLABwHP0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>I Survived The 5 Deadliest Places On Earth</t>
+          <t>I Built 100 Houses And Gave Them Away!</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-22T16:00:00Z</t>
+          <t>2024-06-29T16:00:00Z</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>803</v>
+        <v>576</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0:13:23</t>
+          <t>0:09:36</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45738.66666666666</v>
+        <v>45472.66666666666</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -874,95 +874,95 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tbn4cYCaZCk</t>
+          <t>4SNThp0YiU4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Drift This Car, Win $10,000</t>
+          <t>50 YouTubers Fight For $1,000,000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-04-16T17:00:15Z</t>
+          <t>2024-07-13T16:00:01Z</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>2487</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0:00:20</t>
+          <t>0:41:27</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45763.70850694444</v>
+        <v>45486.66667824074</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>M1STzb7k9L8</t>
+          <t>UPrkC1LdlLY</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Extreme Helmet Game</t>
+          <t>Survive 100 Days In Nuclear Bunker, Win $500,000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-04-25T16:15:00Z</t>
+          <t>2024-08-03T16:00:00Z</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>1941</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0:00:23</t>
+          <t>0:32:21</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45772.67708333334</v>
+        <v>45507.66666666666</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>uyiG6uw-6pA</t>
+          <t>ndAQfTzlVjc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Would You Risk Drowning for $500,000?</t>
+          <t>7 Days Stranded In A Cave</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-04-26T16:00:00Z</t>
+          <t>2024-08-17T16:00:00Z</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1546</v>
+        <v>1079</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0:25:46</t>
+          <t>0:17:59</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45773.66666666666</v>
+        <v>45521.66666666666</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -973,62 +973,62 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>N0pwLtonPdg</t>
+          <t>aRcUVhVlSHg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Slippery vs Sticky Stairs</t>
+          <t>Men Vs Women Survive In The Wilderness For $500,000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-05-16T16:00:01Z</t>
+          <t>2024-09-07T16:00:00Z</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>1908</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0:00:36</t>
+          <t>0:31:48</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45793.66667824074</v>
+        <v>45542.66666666666</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DZIASl9q90s</t>
+          <t>snX5YyflrGw</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Beat Neymar, Win $500,000</t>
+          <t>100 Identical Twins Fight For $250,000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-05-24T16:00:01Z</t>
+          <t>2024-09-28T16:00:00Z</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1673</v>
+        <v>2140</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0:27:53</t>
+          <t>0:35:40</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45801.66667824074</v>
+        <v>45563.66666666666</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1039,66 +1039,495 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>c2ukL_zjFCk</t>
+          <t>bn0Kh9c4Zv4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Extreme Helmet Game</t>
+          <t>7 Days Exploring An Underground City</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-05-28T16:00:19Z</t>
+          <t>2024-10-12T16:00:00Z</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>32</v>
+        <v>1235</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0:00:32</t>
+          <t>0:20:35</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45805.66688657407</v>
+        <v>45577.66666666666</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>V6In4tmd-w8</t>
+          <t>Xj0Jtjg3lHQ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$1 vs $25,000 VFX</t>
+          <t>$1 vs $500,000 Experiences!</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-06-19T17:00:41Z</t>
+          <t>2024-11-02T16:00:00Z</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>1060</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0:00:23</t>
+          <t>0:17:40</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45827.70880787037</v>
+        <v>45598.66666666666</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0BjlBnfHcHM</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Beat Ronaldo, Win $1,000,000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-11-30T17:00:00Z</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1365</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0:22:45</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45626.70833333334</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>gs8qfL9PNac</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2,000 People Fight For $5,000,000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-12-19T17:00:00Z</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1485</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0:24:45</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45645.70833333334</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Thursday</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SM66GDRyIVY</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>I Helped 2,000 People Walk Again</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-01-11T17:00:02Z</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>931</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0:15:31</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45668.70835648148</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sF5LYGgKbUA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Every Minute One Person Is Eliminated</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-01-25T17:00:01Z</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2086</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0:34:46</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45682.70834490741</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NDsO1LT_0lw</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>I Spent 100 Hours Inside The Pyramids!</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-02-08T17:00:00Z</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1303</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0:21:43</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45696.70833333334</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>zajUgQLviwk</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Last to Leave Their Circle Wins $500,000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-03-01T17:00:01Z</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2318</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0:38:38</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45717.70834490741</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>aKq8bkY5eTU</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>I Survived The 5 Deadliest Places On Earth</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-03-22T16:00:00Z</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>803</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0:13:23</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45738.66666666666</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>figrl0aOULs</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Click This Video To Feed 1 Person</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-04-12T16:00:01Z</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>629</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0:10:29</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45759.66667824074</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>uyiG6uw-6pA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Would You Risk Drowning for $500,000?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-04-26T16:00:00Z</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1546</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0:25:46</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45773.66666666666</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>-4GmbBoYQjE</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>I Survived 100 Hours In An Ancient Temple</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-05-10T16:00:01Z</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>946</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0:15:46</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45787.66667824074</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DZIASl9q90s</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Beat Neymar, Win $500,000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-05-24T16:00:01Z</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1673</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0:27:53</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45801.66667824074</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>hTSaweR8qMI</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>$1 vs $500,000 Date</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-06-07T16:00:00Z</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1042</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0:17:22</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45815.66666666666</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>pe_ejTiIcSs</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lose 100 LBs, Win $250,000!</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-06-21T16:00:01Z</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2210</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0:36:50</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45829.66667824074</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Saturday</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1148,12 +1577,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Average_duration_excluding_shorts(HH:MM:SS)</t>
+          <t>Average_duration_long_videos(HH:MM:SS)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0:21:02</t>
+          <t>0:23:18</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1594,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28.7</t>
+          <t>16.6</t>
         </is>
       </c>
     </row>
@@ -1177,67 +1606,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.526</t>
+          <t>0.969</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Friday_publish_frequency</t>
+          <t>Thursday_publish_frequency</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.158</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Wednesday_publish_frequency</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Thursday_publish_frequency</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.105</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Tuesday_publish_frequency</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.053</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Monday_publish_frequency</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.053</t>
+          <t>0.031</t>
         </is>
       </c>
     </row>
